--- a/image/LED.xlsx
+++ b/image/LED.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12710"/>
+    <workbookView windowWidth="11950" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,13 +44,6 @@
     </font>
     <font>
       <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -201,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,36 +204,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,73 +518,88 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,99 +608,76 @@
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,6 +731,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00D6AFAA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1042,13 +1002,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="J3" sqref="D3 E4 I4 J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="13" width="10.6363636363636" customWidth="1"/>
     <col min="14" max="24" width="100.636363636364" customWidth="1"/>
@@ -1059,13 +1019,13 @@
       <c r="A1" s="1">
         <v>12</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>11</v>
       </c>
       <c r="C1" s="1">
         <v>10</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>9</v>
       </c>
       <c r="E1" s="3">
@@ -1074,25 +1034,25 @@
       <c r="F1" s="3">
         <v>7</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="3">
         <v>5</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="3">
         <v>4</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="2">
         <v>3</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="2">
         <v>2</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="2">
         <v>1</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1100,7 +1060,7 @@
       <c r="A2" s="1">
         <v>13</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>14</v>
       </c>
       <c r="C2" s="1">
@@ -1109,31 +1069,31 @@
       <c r="D2" s="3">
         <v>16</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>17</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>18</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>19</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>20</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>21</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>22</v>
       </c>
       <c r="K2" s="2">
         <v>23</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="2">
         <v>24</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="2">
         <v>25</v>
       </c>
     </row>
@@ -1147,7 +1107,7 @@
       <c r="C3" s="1">
         <v>36</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>35</v>
       </c>
       <c r="E3" s="3">
@@ -1156,63 +1116,63 @@
       <c r="F3" s="3">
         <v>33</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>32</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>31</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>30</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="2">
         <v>29</v>
       </c>
       <c r="K3" s="2">
         <v>28</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="2">
         <v>27</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:13">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>39</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>41</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>43</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>44</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>45</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>46</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <v>47</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="2">
         <v>48</v>
       </c>
       <c r="K4" s="2">
         <v>49</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="2">
         <v>50</v>
       </c>
       <c r="M4" s="2">
@@ -1223,42 +1183,48 @@
       <c r="A5" s="1">
         <v>64</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>63</v>
       </c>
       <c r="C5" s="1">
         <v>62</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>61</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>60</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>59</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>58</v>
       </c>
       <c r="H5" s="2">
         <v>57</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <v>56</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="2">
         <v>55</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="2">
         <v>54</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="2">
         <v>53</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="2">
         <v>52</v>
       </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/image/LED.xlsx
+++ b/image/LED.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11950" windowHeight="12720"/>
+    <workbookView windowWidth="24750" windowHeight="12710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +204,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +563,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,16 +587,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -581,25 +605,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,22 +674,44 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,69 +1038,71 @@
   <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="J3" sqref="D3 E4 I4 J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="13" width="10.6363636363636" customWidth="1"/>
+    <col min="1" max="5" width="10.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="7" max="13" width="10.6363636363636" customWidth="1"/>
     <col min="14" max="24" width="100.636363636364" customWidth="1"/>
     <col min="25" max="25" width="1.63636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="55" customHeight="1" spans="1:13">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>12</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>11</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>10</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="4">
         <v>9</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>8</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>7</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="5">
         <v>6</v>
       </c>
       <c r="H1" s="3">
         <v>5</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="3">
         <v>3</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="8">
         <v>2</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="8">
         <v>1</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="55" customHeight="1" spans="1:13">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>15</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>16</v>
       </c>
       <c r="E2" s="3">
@@ -1075,156 +1111,156 @@
       <c r="F2" s="3">
         <v>18</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>19</v>
       </c>
       <c r="H2" s="3">
         <v>20</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="7">
         <v>21</v>
       </c>
       <c r="J2" s="3">
         <v>22</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="8">
         <v>23</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="9">
         <v>24</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="8">
         <v>25</v>
       </c>
     </row>
     <row r="3" ht="55" customHeight="1" spans="1:13">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>38</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>37</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>36</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>35</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>34</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>33</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>32</v>
       </c>
       <c r="H3" s="3">
         <v>31</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="7">
         <v>30</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>29</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="8">
         <v>28</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="9">
         <v>27</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="8">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:13">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>39</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>40</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>41</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>42</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>43</v>
       </c>
       <c r="F4" s="3">
         <v>44</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>45</v>
       </c>
       <c r="H4" s="3">
         <v>46</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="7">
         <v>47</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>48</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="8">
         <v>49</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="9">
         <v>50</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="8">
         <v>51</v>
       </c>
     </row>
     <row r="5" ht="55" customHeight="1" spans="1:13">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>64</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>63</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>62</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>61</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>60</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>59</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>58</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>57</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="7">
         <v>56</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="7">
         <v>55</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="8">
         <v>54</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="8">
         <v>53</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="8">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
